--- a/biology/Zoologie/Chromatomyia/Chromatomyia.xlsx
+++ b/biology/Zoologie/Chromatomyia/Chromatomyia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chromatomyia est un genre d'insectes diptères de la famille des Agromyzidae et dont la répartition est cosmopolite.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (14 février 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 février 2024) :
 Chromatomyia aizoon  (Hering, 1932)
 Chromatomyia alopecuri  Griffiths, 1980
 Chromatomyia alpigenae  (Hendel, 1925)
@@ -634,10 +648,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Chromatomyia Hardy (d), 1849[2],[3].
-Chromatomyia a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Chromatomyia Hardy (d), 1849,.
+Chromatomyia a pour synonyme :
 Chromatomyiae</t>
         </is>
       </c>
@@ -666,9 +682,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Chromatomyia, dérive du grec ancien χρῶμα, khrõma, « couleur », et μυῖα, myia, « mouche »[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Chromatomyia, dérive du grec ancien χρῶμα, khrõma, « couleur », et μυῖα, myia, « mouche ».
 </t>
         </is>
       </c>
@@ -697,7 +715,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) James Hardy, « On the primrose-leaf miner; with notice of a proposed new genus, and characters of three species of Diptera », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 4, no 24,‎ décembre 1849, p. 385-392 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/03745486009494857, lire en ligne)</t>
         </is>
